--- a/biology/Zoologie/Iranattus_rectangularis/Iranattus_rectangularis.xlsx
+++ b/biology/Zoologie/Iranattus_rectangularis/Iranattus_rectangularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iranattus rectangularis est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iranattus rectangularis est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Iran et en Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Iran et en Inde.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,96 mm de long et l'abdomen 1,96 mm[2].
-La carapace du mâle décrit par Marathe, Tripathi, Sudhikumar et Maddison en 2024  mesure 1,46 mm de long sur 1,26 mm et l'abdomen 1,32 mm de long sur 0,86 mm et la carapace de la femelle 1,91 mm de long sur 1,56 mm et l'abdomen 1,83 mm de long sur 1,27 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,96 mm de long et l'abdomen 1,96 mm.
+La carapace du mâle décrit par Marathe, Tripathi, Sudhikumar et Maddison en 2024  mesure 1,46 mm de long sur 1,26 mm et l'abdomen 1,32 mm de long sur 0,86 mm et la carapace de la femelle 1,91 mm de long sur 1,56 mm et l'abdomen 1,83 mm de long sur 1,27 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Prószyński en 1992.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prószyński, 1992 : « Salticidae (Araneae) of the Old World and Pacific Islands in several US collections. » Annales zoologici, vol. 44, p. 87-163.</t>
         </is>
